--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Icam1-Itgam.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Icam1-Itgam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.2543990670205</v>
+        <v>28.316642</v>
       </c>
       <c r="H2">
-        <v>28.2543990670205</v>
+        <v>84.949926</v>
       </c>
       <c r="I2">
-        <v>0.2443136137494823</v>
+        <v>0.2382575792676785</v>
       </c>
       <c r="J2">
-        <v>0.2443136137494823</v>
+        <v>0.2382575792676785</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>146.433606223121</v>
+        <v>0.142723</v>
       </c>
       <c r="N2">
-        <v>146.433606223121</v>
+        <v>0.428169</v>
       </c>
       <c r="O2">
-        <v>0.5086671177303524</v>
+        <v>0.000470790275435748</v>
       </c>
       <c r="P2">
-        <v>0.5086671177303524</v>
+        <v>0.0004707902754357479</v>
       </c>
       <c r="Q2">
-        <v>4137.393547050997</v>
+        <v>4.041436096166001</v>
       </c>
       <c r="R2">
-        <v>4137.393547050997</v>
+        <v>36.37292486549401</v>
       </c>
       <c r="S2">
-        <v>0.1242743017282358</v>
+        <v>0.0001121693513680849</v>
       </c>
       <c r="T2">
-        <v>0.1242743017282358</v>
+        <v>0.0001121693513680849</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.2543990670205</v>
+        <v>28.316642</v>
       </c>
       <c r="H3">
-        <v>28.2543990670205</v>
+        <v>84.949926</v>
       </c>
       <c r="I3">
-        <v>0.2443136137494823</v>
+        <v>0.2382575792676785</v>
       </c>
       <c r="J3">
-        <v>0.2443136137494823</v>
+        <v>0.2382575792676785</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>141.443477077448</v>
+        <v>148.0881626666667</v>
       </c>
       <c r="N3">
-        <v>141.443477077448</v>
+        <v>444.264488</v>
       </c>
       <c r="O3">
-        <v>0.4913328822696476</v>
+        <v>0.4884879584272602</v>
       </c>
       <c r="P3">
-        <v>0.4913328822696476</v>
+        <v>0.4884879584272601</v>
       </c>
       <c r="Q3">
-        <v>3996.400446773182</v>
+        <v>4193.359486669766</v>
       </c>
       <c r="R3">
-        <v>3996.400446773182</v>
+        <v>37740.23538002789</v>
       </c>
       <c r="S3">
-        <v>0.1200393120212465</v>
+        <v>0.1163859584762894</v>
       </c>
       <c r="T3">
-        <v>0.1200393120212465</v>
+        <v>0.1163859584762894</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>32.0402255896116</v>
+        <v>28.316642</v>
       </c>
       <c r="H4">
-        <v>32.0402255896116</v>
+        <v>84.949926</v>
       </c>
       <c r="I4">
-        <v>0.2770493642628414</v>
+        <v>0.2382575792676785</v>
       </c>
       <c r="J4">
-        <v>0.2770493642628414</v>
+        <v>0.2382575792676785</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>146.433606223121</v>
+        <v>154.9253336666667</v>
       </c>
       <c r="N4">
-        <v>146.433606223121</v>
+        <v>464.776001</v>
       </c>
       <c r="O4">
-        <v>0.5086671177303524</v>
+        <v>0.5110412512973043</v>
       </c>
       <c r="P4">
-        <v>0.5086671177303524</v>
+        <v>0.5110412512973042</v>
       </c>
       <c r="Q4">
-        <v>4691.76577728915</v>
+        <v>4386.965210169547</v>
       </c>
       <c r="R4">
-        <v>4691.76577728915</v>
+        <v>39482.68689152593</v>
       </c>
       <c r="S4">
-        <v>0.140925901588606</v>
+        <v>0.1217594514400211</v>
       </c>
       <c r="T4">
-        <v>0.140925901588606</v>
+        <v>0.1217594514400211</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>32.0402255896116</v>
+        <v>32.208719</v>
       </c>
       <c r="H5">
-        <v>32.0402255896116</v>
+        <v>96.62615700000001</v>
       </c>
       <c r="I5">
-        <v>0.2770493642628414</v>
+        <v>0.2710057011792882</v>
       </c>
       <c r="J5">
-        <v>0.2770493642628414</v>
+        <v>0.2710057011792883</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>141.443477077448</v>
+        <v>0.142723</v>
       </c>
       <c r="N5">
-        <v>141.443477077448</v>
+        <v>0.428169</v>
       </c>
       <c r="O5">
-        <v>0.4913328822696476</v>
+        <v>0.000470790275435748</v>
       </c>
       <c r="P5">
-        <v>0.4913328822696476</v>
+        <v>0.0004707902754357479</v>
       </c>
       <c r="Q5">
-        <v>4531.880913740491</v>
+        <v>4.596925001837</v>
       </c>
       <c r="R5">
-        <v>4531.880913740491</v>
+        <v>41.372325016533</v>
       </c>
       <c r="S5">
-        <v>0.1361234626742354</v>
+        <v>0.0001275868487028551</v>
       </c>
       <c r="T5">
-        <v>0.1361234626742354</v>
+        <v>0.0001275868487028551</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -782,57 +782,57 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.9072500677621</v>
+        <v>32.208719</v>
       </c>
       <c r="H6">
-        <v>18.9072500677621</v>
+        <v>96.62615700000001</v>
       </c>
       <c r="I6">
-        <v>0.1634895358829948</v>
+        <v>0.2710057011792882</v>
       </c>
       <c r="J6">
-        <v>0.1634895358829948</v>
+        <v>0.2710057011792883</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>146.433606223121</v>
+        <v>148.0881626666667</v>
       </c>
       <c r="N6">
-        <v>146.433606223121</v>
+        <v>444.264488</v>
       </c>
       <c r="O6">
-        <v>0.5086671177303524</v>
+        <v>0.4884879584272602</v>
       </c>
       <c r="P6">
-        <v>0.5086671177303524</v>
+        <v>0.4884879584272601</v>
       </c>
       <c r="Q6">
-        <v>2768.656811184753</v>
+        <v>4769.730018556958</v>
       </c>
       <c r="R6">
-        <v>2768.656811184753</v>
+        <v>42927.57016701262</v>
       </c>
       <c r="S6">
-        <v>0.08316175099667598</v>
+        <v>0.1323830216912187</v>
       </c>
       <c r="T6">
-        <v>0.08316175099667598</v>
+        <v>0.1323830216912187</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -844,57 +844,57 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.9072500677621</v>
+        <v>32.208719</v>
       </c>
       <c r="H7">
-        <v>18.9072500677621</v>
+        <v>96.62615700000001</v>
       </c>
       <c r="I7">
-        <v>0.1634895358829948</v>
+        <v>0.2710057011792882</v>
       </c>
       <c r="J7">
-        <v>0.1634895358829948</v>
+        <v>0.2710057011792883</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>141.443477077448</v>
+        <v>154.9253336666667</v>
       </c>
       <c r="N7">
-        <v>141.443477077448</v>
+        <v>464.776001</v>
       </c>
       <c r="O7">
-        <v>0.4913328822696476</v>
+        <v>0.5110412512973043</v>
       </c>
       <c r="P7">
-        <v>0.4913328822696476</v>
+        <v>0.5110412512973042</v>
       </c>
       <c r="Q7">
-        <v>2674.307191557085</v>
+        <v>4989.946538050906</v>
       </c>
       <c r="R7">
-        <v>2674.307191557085</v>
+        <v>44909.51884245816</v>
       </c>
       <c r="S7">
-        <v>0.0803277848863188</v>
+        <v>0.1384950926393668</v>
       </c>
       <c r="T7">
-        <v>0.0803277848863188</v>
+        <v>0.1384950926393668</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>36.1718308203635</v>
+        <v>19.02080233333333</v>
       </c>
       <c r="H8">
-        <v>36.1718308203635</v>
+        <v>57.06240699999999</v>
       </c>
       <c r="I8">
-        <v>0.3127750366481187</v>
+        <v>0.1600419399895302</v>
       </c>
       <c r="J8">
-        <v>0.3127750366481187</v>
+        <v>0.1600419399895302</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>146.433606223121</v>
+        <v>0.142723</v>
       </c>
       <c r="N8">
-        <v>146.433606223121</v>
+        <v>0.428169</v>
       </c>
       <c r="O8">
-        <v>0.5086671177303524</v>
+        <v>0.000470790275435748</v>
       </c>
       <c r="P8">
-        <v>0.5086671177303524</v>
+        <v>0.0004707902754357479</v>
       </c>
       <c r="Q8">
-        <v>5296.771630718461</v>
+        <v>2.714705971420333</v>
       </c>
       <c r="R8">
-        <v>5296.771630718461</v>
+        <v>24.432353742783</v>
       </c>
       <c r="S8">
-        <v>0.1590983763898039</v>
+        <v>7.534618900894237E-05</v>
       </c>
       <c r="T8">
-        <v>0.1590983763898039</v>
+        <v>7.534618900894236E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>36.1718308203635</v>
+        <v>19.02080233333333</v>
       </c>
       <c r="H9">
-        <v>36.1718308203635</v>
+        <v>57.06240699999999</v>
       </c>
       <c r="I9">
-        <v>0.3127750366481187</v>
+        <v>0.1600419399895302</v>
       </c>
       <c r="J9">
-        <v>0.3127750366481187</v>
+        <v>0.1600419399895302</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>141.443477077448</v>
+        <v>148.0881626666667</v>
       </c>
       <c r="N9">
-        <v>141.443477077448</v>
+        <v>444.264488</v>
       </c>
       <c r="O9">
-        <v>0.4913328822696476</v>
+        <v>0.4884879584272602</v>
       </c>
       <c r="P9">
-        <v>0.4913328822696476</v>
+        <v>0.4884879584272601</v>
       </c>
       <c r="Q9">
-        <v>5116.269523489412</v>
+        <v>2816.75566998918</v>
       </c>
       <c r="R9">
-        <v>5116.269523489412</v>
+        <v>25350.80102990261</v>
       </c>
       <c r="S9">
-        <v>0.1536766602583148</v>
+        <v>0.0781785605282237</v>
       </c>
       <c r="T9">
-        <v>0.1536766602583148</v>
+        <v>0.07817856052822368</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.274369212109465</v>
+        <v>19.02080233333333</v>
       </c>
       <c r="H10">
-        <v>0.274369212109465</v>
+        <v>57.06240699999999</v>
       </c>
       <c r="I10">
-        <v>0.002372449456562812</v>
+        <v>0.1600419399895302</v>
       </c>
       <c r="J10">
-        <v>0.002372449456562812</v>
+        <v>0.1600419399895302</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>146.433606223121</v>
+        <v>154.9253336666667</v>
       </c>
       <c r="N10">
-        <v>146.433606223121</v>
+        <v>464.776001</v>
       </c>
       <c r="O10">
-        <v>0.5086671177303524</v>
+        <v>0.5110412512973043</v>
       </c>
       <c r="P10">
-        <v>0.5086671177303524</v>
+        <v>0.5110412512973042</v>
       </c>
       <c r="Q10">
-        <v>40.17687316578536</v>
+        <v>2946.804148099378</v>
       </c>
       <c r="R10">
-        <v>40.17687316578536</v>
+        <v>26521.2373328944</v>
       </c>
       <c r="S10">
-        <v>0.001206787027030747</v>
+        <v>0.0817880332722976</v>
       </c>
       <c r="T10">
-        <v>0.001206787027030747</v>
+        <v>0.08178803327229757</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,365 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>38.93425766666667</v>
+      </c>
+      <c r="H11">
+        <v>116.802773</v>
+      </c>
+      <c r="I11">
+        <v>0.3275947049881145</v>
+      </c>
+      <c r="J11">
+        <v>0.3275947049881145</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.142723</v>
+      </c>
+      <c r="N11">
+        <v>0.428169</v>
+      </c>
+      <c r="O11">
+        <v>0.000470790275435748</v>
+      </c>
+      <c r="P11">
+        <v>0.0004707902754357479</v>
+      </c>
+      <c r="Q11">
+        <v>5.556814056959667</v>
+      </c>
+      <c r="R11">
+        <v>50.01132651263701</v>
+      </c>
+      <c r="S11">
+        <v>0.000154228401392647</v>
+      </c>
+      <c r="T11">
+        <v>0.000154228401392647</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.274369212109465</v>
-      </c>
-      <c r="H11">
-        <v>0.274369212109465</v>
-      </c>
-      <c r="I11">
-        <v>0.002372449456562812</v>
-      </c>
-      <c r="J11">
-        <v>0.002372449456562812</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>141.443477077448</v>
-      </c>
-      <c r="N11">
-        <v>141.443477077448</v>
-      </c>
-      <c r="O11">
-        <v>0.4913328822696476</v>
-      </c>
-      <c r="P11">
-        <v>0.4913328822696476</v>
-      </c>
-      <c r="Q11">
-        <v>38.80773536376258</v>
-      </c>
-      <c r="R11">
-        <v>38.80773536376258</v>
-      </c>
-      <c r="S11">
-        <v>0.001165662429532066</v>
-      </c>
-      <c r="T11">
-        <v>0.001165662429532066</v>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>38.93425766666667</v>
+      </c>
+      <c r="H12">
+        <v>116.802773</v>
+      </c>
+      <c r="I12">
+        <v>0.3275947049881145</v>
+      </c>
+      <c r="J12">
+        <v>0.3275947049881145</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>148.0881626666667</v>
+      </c>
+      <c r="N12">
+        <v>444.264488</v>
+      </c>
+      <c r="O12">
+        <v>0.4884879584272602</v>
+      </c>
+      <c r="P12">
+        <v>0.4884879584272601</v>
+      </c>
+      <c r="Q12">
+        <v>5765.702682647247</v>
+      </c>
+      <c r="R12">
+        <v>51891.32414382523</v>
+      </c>
+      <c r="S12">
+        <v>0.1600260686312246</v>
+      </c>
+      <c r="T12">
+        <v>0.1600260686312246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>38.93425766666667</v>
+      </c>
+      <c r="H13">
+        <v>116.802773</v>
+      </c>
+      <c r="I13">
+        <v>0.3275947049881145</v>
+      </c>
+      <c r="J13">
+        <v>0.3275947049881145</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>154.9253336666667</v>
+      </c>
+      <c r="N13">
+        <v>464.776001</v>
+      </c>
+      <c r="O13">
+        <v>0.5110412512973043</v>
+      </c>
+      <c r="P13">
+        <v>0.5110412512973042</v>
+      </c>
+      <c r="Q13">
+        <v>6031.902860072308</v>
+      </c>
+      <c r="R13">
+        <v>54287.12574065076</v>
+      </c>
+      <c r="S13">
+        <v>0.1674144079554973</v>
+      </c>
+      <c r="T13">
+        <v>0.1674144079554973</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.3684403333333333</v>
+      </c>
+      <c r="H14">
+        <v>1.105321</v>
+      </c>
+      <c r="I14">
+        <v>0.003100074575388443</v>
+      </c>
+      <c r="J14">
+        <v>0.003100074575388443</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.142723</v>
+      </c>
+      <c r="N14">
+        <v>0.428169</v>
+      </c>
+      <c r="O14">
+        <v>0.000470790275435748</v>
+      </c>
+      <c r="P14">
+        <v>0.0004707902754357479</v>
+      </c>
+      <c r="Q14">
+        <v>0.05258490969433334</v>
+      </c>
+      <c r="R14">
+        <v>0.473264187249</v>
+      </c>
+      <c r="S14">
+        <v>1.459484963218485E-06</v>
+      </c>
+      <c r="T14">
+        <v>1.459484963218484E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.3684403333333333</v>
+      </c>
+      <c r="H15">
+        <v>1.105321</v>
+      </c>
+      <c r="I15">
+        <v>0.003100074575388443</v>
+      </c>
+      <c r="J15">
+        <v>0.003100074575388443</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>148.0881626666667</v>
+      </c>
+      <c r="N15">
+        <v>444.264488</v>
+      </c>
+      <c r="O15">
+        <v>0.4884879584272602</v>
+      </c>
+      <c r="P15">
+        <v>0.4884879584272601</v>
+      </c>
+      <c r="Q15">
+        <v>54.56165201562756</v>
+      </c>
+      <c r="R15">
+        <v>491.054868140648</v>
+      </c>
+      <c r="S15">
+        <v>0.001514349100303756</v>
+      </c>
+      <c r="T15">
+        <v>0.001514349100303756</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.3684403333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.105321</v>
+      </c>
+      <c r="I16">
+        <v>0.003100074575388443</v>
+      </c>
+      <c r="J16">
+        <v>0.003100074575388443</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>154.9253336666667</v>
+      </c>
+      <c r="N16">
+        <v>464.776001</v>
+      </c>
+      <c r="O16">
+        <v>0.5110412512973043</v>
+      </c>
+      <c r="P16">
+        <v>0.5110412512973042</v>
+      </c>
+      <c r="Q16">
+        <v>57.08074157792455</v>
+      </c>
+      <c r="R16">
+        <v>513.726674201321</v>
+      </c>
+      <c r="S16">
+        <v>0.001584265990121469</v>
+      </c>
+      <c r="T16">
+        <v>0.001584265990121469</v>
       </c>
     </row>
   </sheetData>
